--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú òóàñàåíòÿ ðïëôðàóû óïìûëï\näåšæâúå ðñåäíåóú ò îàéáïìûšåê äìÿ îàò\nøåîîïòóûý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It still stinks a little…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь всё ещё пахнет…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû âòæ åþæ ðàöîåó…</t>
   </si>
 </sst>
 </file>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +631,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8">
+        <v>155</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -109,6 +109,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Èäåòû âòæ åþæ ðàöîåó…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Another Time Gear has\nbeen stolen?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1412.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похитили ещё одну Шестерню\nВремени?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöéóéìé åþæ ïäîô Šåòóåñîý\nÂñåíåîé?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is it safe to seal away the\nTime Gears?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Will that still allow time to\nwork properly in that area?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1605.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А безопасно ли запечатывать\nШестерни Времени?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не повредит ли это потоку\nвремени в области, где она находится?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À áåèïðàòîï ìé èàðåœàóúâàóû\nŠåòóåñîé Âñåíåîé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå ðïâñåäéó ìé üóï ðïóïëô\nâñåíåîé â ïáìàòóé, ãäå ïîà îàöïäéóòÿ?</t>
   </si>
 </sst>
 </file>
@@ -504,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,6 +684,63 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4">
+        <v>136</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4">
+        <v>114</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>117</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Îå ðïâñåäéó ìé üóï ðïóïëô\nâñåíåîé â ïáìàòóé, ãäå ïîà îàöïäéóòÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [team:] is in charge!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, Команда [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, Ëïíàîäà [team:]!</t>
   </si>
 </sst>
 </file>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,17 +740,32 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>117</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Âðåñæä, Ëïíàîäà [team:]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2506.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The grand master of all things\nbad? Nope, never heard of him.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãñàîä íàòóåñ âòåãï òàíïãï\nðìïöïãï? Îå-à, ÿ îéœåãï ï îæí îå èîàý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гранд мастер всего самого\nплохого? Не-а, я ничего о нём не знаю.</t>
   </si>
 </sst>
 </file>
@@ -552,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,6 +783,32 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4">
+        <v>76</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -172,6 +172,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Гранд мастер всего самого\nплохого? Не-а, я ничего о нём не знаю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I enjoy getting [CS:I]Prize Ticket[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/P01P04A/us0403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Люблю получать [CS:I]Призовые Билеты[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ìýáìý ðïìôœàóû [CS:I]Ðñéèïâúå Áéìåóú[CR]...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2008.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Drowzee[CR]?[K] ...Oh, right.\nThat petty crook.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2010.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Дроузи[CR]?[K] ...Ах, точно. Тот\nжалкий негодяй.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äñïôèé[CR]?[K] ...Àö, óïœîï. Óïó\nçàìëéê îåãïäÿê.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2014.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why\'d you bring in a known\noutlaw like [CS:N]Drowzee[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зачем вы привели сюда печально\nизвестного негодяя [CS:N]Дроузи[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàœåí âú ðñéâåìé òýäà ðåœàìûîï\néèâåòóîïãï îåãïäÿÿ [CS:N]Äñïôèé[CR]?</t>
   </si>
 </sst>
 </file>
@@ -567,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,20 +832,80 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="8">
         <v>76</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
